--- a/Data/Russian_Universities_TS.xlsx
+++ b/Data/Russian_Universities_TS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="49">
   <si>
     <t>University</t>
   </si>
@@ -154,16 +154,13 @@
     <t>THE</t>
   </si>
   <si>
+    <t>CWUR</t>
+  </si>
+  <si>
+    <t>ARWU</t>
+  </si>
+  <si>
     <t>QS</t>
-  </si>
-  <si>
-    <t>CWUR</t>
-  </si>
-  <si>
-    <t>ARWU</t>
-  </si>
-  <si>
-    <t>1001</t>
   </si>
 </sst>
 </file>
@@ -576,8 +573,8 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
+      <c r="C4">
+        <v>1001</v>
       </c>
       <c r="D4">
         <v>2020</v>
@@ -727,8 +724,8 @@
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
+      <c r="C15">
+        <v>1001</v>
       </c>
       <c r="D15">
         <v>2020</v>
@@ -783,8 +780,8 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
+      <c r="C19">
+        <v>1001</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -797,8 +794,8 @@
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
+      <c r="C20">
+        <v>1001</v>
       </c>
       <c r="D20">
         <v>2020</v>
@@ -825,8 +822,8 @@
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
+      <c r="C22">
+        <v>1001</v>
       </c>
       <c r="D22">
         <v>2020</v>
@@ -839,8 +836,8 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
+      <c r="C23">
+        <v>1001</v>
       </c>
       <c r="D23">
         <v>2020</v>
@@ -853,8 +850,8 @@
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
+      <c r="C24">
+        <v>1001</v>
       </c>
       <c r="D24">
         <v>2020</v>
@@ -867,8 +864,8 @@
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
+      <c r="C25">
+        <v>1001</v>
       </c>
       <c r="D25">
         <v>2020</v>
@@ -881,8 +878,8 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>49</v>
+      <c r="C26">
+        <v>1001</v>
       </c>
       <c r="D26">
         <v>2020</v>
@@ -909,8 +906,8 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
+      <c r="C28">
+        <v>1001</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -923,8 +920,8 @@
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
+      <c r="C29">
+        <v>1001</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -937,8 +934,8 @@
       <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
+      <c r="C30">
+        <v>1001</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -951,8 +948,8 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
+      <c r="C31">
+        <v>1001</v>
       </c>
       <c r="D31">
         <v>2020</v>
@@ -965,8 +962,8 @@
       <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
-        <v>49</v>
+      <c r="C32">
+        <v>1001</v>
       </c>
       <c r="D32">
         <v>2020</v>
@@ -979,8 +976,8 @@
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>49</v>
+      <c r="C33">
+        <v>1001</v>
       </c>
       <c r="D33">
         <v>2020</v>
@@ -993,8 +990,8 @@
       <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
+      <c r="C34">
+        <v>1001</v>
       </c>
       <c r="D34">
         <v>2020</v>
@@ -1007,8 +1004,8 @@
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
+      <c r="C35">
+        <v>1001</v>
       </c>
       <c r="D35">
         <v>2020</v>
@@ -1021,8 +1018,8 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
+      <c r="C36">
+        <v>1001</v>
       </c>
       <c r="D36">
         <v>2020</v>
@@ -1035,8 +1032,8 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
+      <c r="C37">
+        <v>1001</v>
       </c>
       <c r="D37">
         <v>2020</v>
@@ -1049,8 +1046,8 @@
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
-        <v>49</v>
+      <c r="C38">
+        <v>1001</v>
       </c>
       <c r="D38">
         <v>2020</v>
@@ -1063,8 +1060,8 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>49</v>
+      <c r="C39">
+        <v>1001</v>
       </c>
       <c r="D39">
         <v>2020</v>
@@ -1077,8 +1074,8 @@
       <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
-        <v>49</v>
+      <c r="C40">
+        <v>1001</v>
       </c>
       <c r="D40">
         <v>2020</v>
@@ -1091,8 +1088,8 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
-        <v>49</v>
+      <c r="C41">
+        <v>1001</v>
       </c>
       <c r="D41">
         <v>2020</v>
@@ -1105,8 +1102,8 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
+      <c r="C42">
+        <v>1001</v>
       </c>
       <c r="D42">
         <v>2020</v>
@@ -1141,8 +1138,8 @@
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
+      <c r="C45">
+        <v>1001</v>
       </c>
       <c r="D45">
         <v>2020</v>
@@ -1286,8 +1283,8 @@
       <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="C56" t="s">
-        <v>49</v>
+      <c r="C56">
+        <v>1001</v>
       </c>
       <c r="D56">
         <v>2020</v>
@@ -1333,8 +1330,8 @@
       <c r="B60" t="s">
         <v>46</v>
       </c>
-      <c r="C60" t="s">
-        <v>49</v>
+      <c r="C60">
+        <v>1001</v>
       </c>
       <c r="D60">
         <v>2020</v>
@@ -1347,8 +1344,8 @@
       <c r="B61" t="s">
         <v>46</v>
       </c>
-      <c r="C61" t="s">
-        <v>49</v>
+      <c r="C61">
+        <v>1001</v>
       </c>
       <c r="D61">
         <v>2020</v>
@@ -1375,8 +1372,8 @@
       <c r="B63" t="s">
         <v>46</v>
       </c>
-      <c r="C63" t="s">
-        <v>49</v>
+      <c r="C63">
+        <v>1001</v>
       </c>
       <c r="D63">
         <v>2020</v>
@@ -1389,8 +1386,8 @@
       <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="C64" t="s">
-        <v>49</v>
+      <c r="C64">
+        <v>1001</v>
       </c>
       <c r="D64">
         <v>2020</v>
@@ -1403,8 +1400,8 @@
       <c r="B65" t="s">
         <v>46</v>
       </c>
-      <c r="C65" t="s">
-        <v>49</v>
+      <c r="C65">
+        <v>1001</v>
       </c>
       <c r="D65">
         <v>2020</v>
@@ -1417,8 +1414,8 @@
       <c r="B66" t="s">
         <v>46</v>
       </c>
-      <c r="C66" t="s">
-        <v>49</v>
+      <c r="C66">
+        <v>1001</v>
       </c>
       <c r="D66">
         <v>2020</v>
@@ -1431,8 +1428,8 @@
       <c r="B67" t="s">
         <v>46</v>
       </c>
-      <c r="C67" t="s">
-        <v>49</v>
+      <c r="C67">
+        <v>1001</v>
       </c>
       <c r="D67">
         <v>2020</v>
@@ -1456,8 +1453,8 @@
       <c r="B69" t="s">
         <v>46</v>
       </c>
-      <c r="C69" t="s">
-        <v>49</v>
+      <c r="C69">
+        <v>1001</v>
       </c>
       <c r="D69">
         <v>2020</v>
@@ -1470,8 +1467,8 @@
       <c r="B70" t="s">
         <v>46</v>
       </c>
-      <c r="C70" t="s">
-        <v>49</v>
+      <c r="C70">
+        <v>1001</v>
       </c>
       <c r="D70">
         <v>2020</v>
@@ -1484,8 +1481,8 @@
       <c r="B71" t="s">
         <v>46</v>
       </c>
-      <c r="C71" t="s">
-        <v>49</v>
+      <c r="C71">
+        <v>1001</v>
       </c>
       <c r="D71">
         <v>2020</v>
@@ -1498,8 +1495,8 @@
       <c r="B72" t="s">
         <v>46</v>
       </c>
-      <c r="C72" t="s">
-        <v>49</v>
+      <c r="C72">
+        <v>1001</v>
       </c>
       <c r="D72">
         <v>2020</v>
@@ -1512,8 +1509,8 @@
       <c r="B73" t="s">
         <v>46</v>
       </c>
-      <c r="C73" t="s">
-        <v>49</v>
+      <c r="C73">
+        <v>1001</v>
       </c>
       <c r="D73">
         <v>2020</v>
@@ -1526,8 +1523,8 @@
       <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="C74" t="s">
-        <v>49</v>
+      <c r="C74">
+        <v>1001</v>
       </c>
       <c r="D74">
         <v>2020</v>
@@ -1540,8 +1537,8 @@
       <c r="B75" t="s">
         <v>46</v>
       </c>
-      <c r="C75" t="s">
-        <v>49</v>
+      <c r="C75">
+        <v>1001</v>
       </c>
       <c r="D75">
         <v>2020</v>
@@ -1554,8 +1551,8 @@
       <c r="B76" t="s">
         <v>46</v>
       </c>
-      <c r="C76" t="s">
-        <v>49</v>
+      <c r="C76">
+        <v>1001</v>
       </c>
       <c r="D76">
         <v>2020</v>
@@ -1568,8 +1565,8 @@
       <c r="B77" t="s">
         <v>46</v>
       </c>
-      <c r="C77" t="s">
-        <v>49</v>
+      <c r="C77">
+        <v>1001</v>
       </c>
       <c r="D77">
         <v>2020</v>
@@ -1582,8 +1579,8 @@
       <c r="B78" t="s">
         <v>46</v>
       </c>
-      <c r="C78" t="s">
-        <v>49</v>
+      <c r="C78">
+        <v>1001</v>
       </c>
       <c r="D78">
         <v>2020</v>
@@ -1596,8 +1593,8 @@
       <c r="B79" t="s">
         <v>46</v>
       </c>
-      <c r="C79" t="s">
-        <v>49</v>
+      <c r="C79">
+        <v>1001</v>
       </c>
       <c r="D79">
         <v>2020</v>
@@ -1610,8 +1607,8 @@
       <c r="B80" t="s">
         <v>46</v>
       </c>
-      <c r="C80" t="s">
-        <v>49</v>
+      <c r="C80">
+        <v>1001</v>
       </c>
       <c r="D80">
         <v>2020</v>
@@ -1624,8 +1621,8 @@
       <c r="B81" t="s">
         <v>46</v>
       </c>
-      <c r="C81" t="s">
-        <v>49</v>
+      <c r="C81">
+        <v>1001</v>
       </c>
       <c r="D81">
         <v>2020</v>
@@ -1638,8 +1635,8 @@
       <c r="B82" t="s">
         <v>46</v>
       </c>
-      <c r="C82" t="s">
-        <v>49</v>
+      <c r="C82">
+        <v>1001</v>
       </c>
       <c r="D82">
         <v>2020</v>
@@ -1652,8 +1649,8 @@
       <c r="B83" t="s">
         <v>46</v>
       </c>
-      <c r="C83" t="s">
-        <v>49</v>
+      <c r="C83">
+        <v>1001</v>
       </c>
       <c r="D83">
         <v>2020</v>
@@ -1688,8 +1685,8 @@
       <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="C86" t="s">
-        <v>49</v>
+      <c r="C86">
+        <v>1001</v>
       </c>
       <c r="D86">
         <v>2020</v>
@@ -1833,8 +1830,8 @@
       <c r="B97" t="s">
         <v>47</v>
       </c>
-      <c r="C97" t="s">
-        <v>49</v>
+      <c r="C97">
+        <v>1001</v>
       </c>
       <c r="D97">
         <v>2020</v>
@@ -1880,8 +1877,8 @@
       <c r="B101" t="s">
         <v>47</v>
       </c>
-      <c r="C101" t="s">
-        <v>49</v>
+      <c r="C101">
+        <v>1001</v>
       </c>
       <c r="D101">
         <v>2020</v>
@@ -1894,8 +1891,8 @@
       <c r="B102" t="s">
         <v>47</v>
       </c>
-      <c r="C102" t="s">
-        <v>49</v>
+      <c r="C102">
+        <v>1001</v>
       </c>
       <c r="D102">
         <v>2020</v>
@@ -1922,8 +1919,8 @@
       <c r="B104" t="s">
         <v>47</v>
       </c>
-      <c r="C104" t="s">
-        <v>49</v>
+      <c r="C104">
+        <v>1001</v>
       </c>
       <c r="D104">
         <v>2020</v>
@@ -1936,8 +1933,8 @@
       <c r="B105" t="s">
         <v>47</v>
       </c>
-      <c r="C105" t="s">
-        <v>49</v>
+      <c r="C105">
+        <v>1001</v>
       </c>
       <c r="D105">
         <v>2020</v>
@@ -1950,8 +1947,8 @@
       <c r="B106" t="s">
         <v>47</v>
       </c>
-      <c r="C106" t="s">
-        <v>49</v>
+      <c r="C106">
+        <v>1001</v>
       </c>
       <c r="D106">
         <v>2020</v>
@@ -1964,8 +1961,8 @@
       <c r="B107" t="s">
         <v>47</v>
       </c>
-      <c r="C107" t="s">
-        <v>49</v>
+      <c r="C107">
+        <v>1001</v>
       </c>
       <c r="D107">
         <v>2020</v>
@@ -1978,8 +1975,8 @@
       <c r="B108" t="s">
         <v>47</v>
       </c>
-      <c r="C108" t="s">
-        <v>49</v>
+      <c r="C108">
+        <v>1001</v>
       </c>
       <c r="D108">
         <v>2020</v>
@@ -2003,8 +2000,8 @@
       <c r="B110" t="s">
         <v>47</v>
       </c>
-      <c r="C110" t="s">
-        <v>49</v>
+      <c r="C110">
+        <v>1001</v>
       </c>
       <c r="D110">
         <v>2020</v>
@@ -2017,8 +2014,8 @@
       <c r="B111" t="s">
         <v>47</v>
       </c>
-      <c r="C111" t="s">
-        <v>49</v>
+      <c r="C111">
+        <v>1001</v>
       </c>
       <c r="D111">
         <v>2020</v>
@@ -2031,8 +2028,8 @@
       <c r="B112" t="s">
         <v>47</v>
       </c>
-      <c r="C112" t="s">
-        <v>49</v>
+      <c r="C112">
+        <v>1001</v>
       </c>
       <c r="D112">
         <v>2020</v>
@@ -2045,8 +2042,8 @@
       <c r="B113" t="s">
         <v>47</v>
       </c>
-      <c r="C113" t="s">
-        <v>49</v>
+      <c r="C113">
+        <v>1001</v>
       </c>
       <c r="D113">
         <v>2020</v>
@@ -2059,8 +2056,8 @@
       <c r="B114" t="s">
         <v>47</v>
       </c>
-      <c r="C114" t="s">
-        <v>49</v>
+      <c r="C114">
+        <v>1001</v>
       </c>
       <c r="D114">
         <v>2020</v>
@@ -2073,8 +2070,8 @@
       <c r="B115" t="s">
         <v>47</v>
       </c>
-      <c r="C115" t="s">
-        <v>49</v>
+      <c r="C115">
+        <v>1001</v>
       </c>
       <c r="D115">
         <v>2020</v>
@@ -2087,8 +2084,8 @@
       <c r="B116" t="s">
         <v>47</v>
       </c>
-      <c r="C116" t="s">
-        <v>49</v>
+      <c r="C116">
+        <v>1001</v>
       </c>
       <c r="D116">
         <v>2020</v>
@@ -2101,8 +2098,8 @@
       <c r="B117" t="s">
         <v>47</v>
       </c>
-      <c r="C117" t="s">
-        <v>49</v>
+      <c r="C117">
+        <v>1001</v>
       </c>
       <c r="D117">
         <v>2020</v>
@@ -2115,8 +2112,8 @@
       <c r="B118" t="s">
         <v>47</v>
       </c>
-      <c r="C118" t="s">
-        <v>49</v>
+      <c r="C118">
+        <v>1001</v>
       </c>
       <c r="D118">
         <v>2020</v>
@@ -2129,8 +2126,8 @@
       <c r="B119" t="s">
         <v>47</v>
       </c>
-      <c r="C119" t="s">
-        <v>49</v>
+      <c r="C119">
+        <v>1001</v>
       </c>
       <c r="D119">
         <v>2020</v>
@@ -2143,8 +2140,8 @@
       <c r="B120" t="s">
         <v>47</v>
       </c>
-      <c r="C120" t="s">
-        <v>49</v>
+      <c r="C120">
+        <v>1001</v>
       </c>
       <c r="D120">
         <v>2020</v>
@@ -2157,8 +2154,8 @@
       <c r="B121" t="s">
         <v>47</v>
       </c>
-      <c r="C121" t="s">
-        <v>49</v>
+      <c r="C121">
+        <v>1001</v>
       </c>
       <c r="D121">
         <v>2020</v>
@@ -2171,8 +2168,8 @@
       <c r="B122" t="s">
         <v>47</v>
       </c>
-      <c r="C122" t="s">
-        <v>49</v>
+      <c r="C122">
+        <v>1001</v>
       </c>
       <c r="D122">
         <v>2020</v>
@@ -2185,8 +2182,8 @@
       <c r="B123" t="s">
         <v>47</v>
       </c>
-      <c r="C123" t="s">
-        <v>49</v>
+      <c r="C123">
+        <v>1001</v>
       </c>
       <c r="D123">
         <v>2020</v>
@@ -2199,8 +2196,8 @@
       <c r="B124" t="s">
         <v>47</v>
       </c>
-      <c r="C124" t="s">
-        <v>49</v>
+      <c r="C124">
+        <v>1001</v>
       </c>
       <c r="D124">
         <v>2020</v>
@@ -2213,6 +2210,9 @@
       <c r="B125" t="s">
         <v>48</v>
       </c>
+      <c r="C125">
+        <v>84</v>
+      </c>
       <c r="D125">
         <v>2020</v>
       </c>
@@ -2224,6 +2224,9 @@
       <c r="B126" t="s">
         <v>48</v>
       </c>
+      <c r="C126">
+        <v>302</v>
+      </c>
       <c r="D126">
         <v>2020</v>
       </c>
@@ -2235,8 +2238,8 @@
       <c r="B127" t="s">
         <v>48</v>
       </c>
-      <c r="C127" t="s">
-        <v>49</v>
+      <c r="C127">
+        <v>667</v>
       </c>
       <c r="D127">
         <v>2020</v>
@@ -2249,6 +2252,9 @@
       <c r="B128" t="s">
         <v>48</v>
       </c>
+      <c r="C128">
+        <v>284</v>
+      </c>
       <c r="D128">
         <v>2020</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>48</v>
       </c>
       <c r="C129">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="D129">
         <v>2020</v>
@@ -2275,7 +2281,7 @@
         <v>48</v>
       </c>
       <c r="C130">
-        <v>402</v>
+        <v>329</v>
       </c>
       <c r="D130">
         <v>2020</v>
@@ -2288,6 +2294,9 @@
       <c r="B131" t="s">
         <v>48</v>
       </c>
+      <c r="C131">
+        <v>366</v>
+      </c>
       <c r="D131">
         <v>2020</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>48</v>
       </c>
       <c r="C132">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="D132">
         <v>2020</v>
@@ -2314,7 +2323,7 @@
         <v>48</v>
       </c>
       <c r="C133">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="D133">
         <v>2020</v>
@@ -2328,7 +2337,7 @@
         <v>48</v>
       </c>
       <c r="C134">
-        <v>954</v>
+        <v>788</v>
       </c>
       <c r="D134">
         <v>2020</v>
@@ -2341,6 +2350,9 @@
       <c r="B135" t="s">
         <v>48</v>
       </c>
+      <c r="C135">
+        <v>234</v>
+      </c>
       <c r="D135">
         <v>2020</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>48</v>
       </c>
       <c r="C136">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="D136">
         <v>2020</v>
@@ -2367,7 +2379,7 @@
         <v>48</v>
       </c>
       <c r="C137">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="D137">
         <v>2020</v>
@@ -2380,8 +2392,8 @@
       <c r="B138" t="s">
         <v>48</v>
       </c>
-      <c r="C138" t="s">
-        <v>49</v>
+      <c r="C138">
+        <v>883</v>
       </c>
       <c r="D138">
         <v>2020</v>
@@ -2394,6 +2406,9 @@
       <c r="B139" t="s">
         <v>48</v>
       </c>
+      <c r="C139">
+        <v>268</v>
+      </c>
       <c r="D139">
         <v>2020</v>
       </c>
@@ -2405,6 +2420,9 @@
       <c r="B140" t="s">
         <v>48</v>
       </c>
+      <c r="C140">
+        <v>387</v>
+      </c>
       <c r="D140">
         <v>2020</v>
       </c>
@@ -2416,6 +2434,9 @@
       <c r="B141" t="s">
         <v>48</v>
       </c>
+      <c r="C141">
+        <v>231</v>
+      </c>
       <c r="D141">
         <v>2020</v>
       </c>
@@ -2427,8 +2448,8 @@
       <c r="B142" t="s">
         <v>48</v>
       </c>
-      <c r="C142" t="s">
-        <v>49</v>
+      <c r="C142">
+        <v>958</v>
       </c>
       <c r="D142">
         <v>2020</v>
@@ -2441,8 +2462,8 @@
       <c r="B143" t="s">
         <v>48</v>
       </c>
-      <c r="C143" t="s">
-        <v>49</v>
+      <c r="C143">
+        <v>529</v>
       </c>
       <c r="D143">
         <v>2020</v>
@@ -2456,7 +2477,7 @@
         <v>48</v>
       </c>
       <c r="C144">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="D144">
         <v>2020</v>
@@ -2469,8 +2490,8 @@
       <c r="B145" t="s">
         <v>48</v>
       </c>
-      <c r="C145" t="s">
-        <v>49</v>
+      <c r="C145">
+        <v>631</v>
       </c>
       <c r="D145">
         <v>2020</v>
@@ -2483,8 +2504,8 @@
       <c r="B146" t="s">
         <v>48</v>
       </c>
-      <c r="C146" t="s">
-        <v>49</v>
+      <c r="C146">
+        <v>364</v>
       </c>
       <c r="D146">
         <v>2020</v>
@@ -2497,8 +2518,8 @@
       <c r="B147" t="s">
         <v>48</v>
       </c>
-      <c r="C147" t="s">
-        <v>49</v>
+      <c r="C147">
+        <v>537</v>
       </c>
       <c r="D147">
         <v>2020</v>
@@ -2511,8 +2532,8 @@
       <c r="B148" t="s">
         <v>48</v>
       </c>
-      <c r="C148" t="s">
-        <v>49</v>
+      <c r="C148">
+        <v>981</v>
       </c>
       <c r="D148">
         <v>2020</v>
@@ -2525,8 +2546,8 @@
       <c r="B149" t="s">
         <v>48</v>
       </c>
-      <c r="C149" t="s">
-        <v>49</v>
+      <c r="C149">
+        <v>543</v>
       </c>
       <c r="D149">
         <v>2020</v>
@@ -2550,9 +2571,6 @@
       <c r="B151" t="s">
         <v>48</v>
       </c>
-      <c r="C151" t="s">
-        <v>49</v>
-      </c>
       <c r="D151">
         <v>2020</v>
       </c>
@@ -2564,9 +2582,6 @@
       <c r="B152" t="s">
         <v>48</v>
       </c>
-      <c r="C152" t="s">
-        <v>49</v>
-      </c>
       <c r="D152">
         <v>2020</v>
       </c>
@@ -2578,9 +2593,6 @@
       <c r="B153" t="s">
         <v>48</v>
       </c>
-      <c r="C153" t="s">
-        <v>49</v>
-      </c>
       <c r="D153">
         <v>2020</v>
       </c>
@@ -2592,9 +2604,6 @@
       <c r="B154" t="s">
         <v>48</v>
       </c>
-      <c r="C154" t="s">
-        <v>49</v>
-      </c>
       <c r="D154">
         <v>2020</v>
       </c>
@@ -2606,9 +2615,6 @@
       <c r="B155" t="s">
         <v>48</v>
       </c>
-      <c r="C155" t="s">
-        <v>49</v>
-      </c>
       <c r="D155">
         <v>2020</v>
       </c>
@@ -2620,9 +2626,6 @@
       <c r="B156" t="s">
         <v>48</v>
       </c>
-      <c r="C156" t="s">
-        <v>49</v>
-      </c>
       <c r="D156">
         <v>2020</v>
       </c>
@@ -2634,9 +2637,6 @@
       <c r="B157" t="s">
         <v>48</v>
       </c>
-      <c r="C157" t="s">
-        <v>49</v>
-      </c>
       <c r="D157">
         <v>2020</v>
       </c>
@@ -2648,9 +2648,6 @@
       <c r="B158" t="s">
         <v>48</v>
       </c>
-      <c r="C158" t="s">
-        <v>49</v>
-      </c>
       <c r="D158">
         <v>2020</v>
       </c>
@@ -2662,9 +2659,6 @@
       <c r="B159" t="s">
         <v>48</v>
       </c>
-      <c r="C159" t="s">
-        <v>49</v>
-      </c>
       <c r="D159">
         <v>2020</v>
       </c>
@@ -2676,9 +2670,6 @@
       <c r="B160" t="s">
         <v>48</v>
       </c>
-      <c r="C160" t="s">
-        <v>49</v>
-      </c>
       <c r="D160">
         <v>2020</v>
       </c>
@@ -2690,9 +2681,6 @@
       <c r="B161" t="s">
         <v>48</v>
       </c>
-      <c r="C161" t="s">
-        <v>49</v>
-      </c>
       <c r="D161">
         <v>2020</v>
       </c>
@@ -2704,9 +2692,6 @@
       <c r="B162" t="s">
         <v>48</v>
       </c>
-      <c r="C162" t="s">
-        <v>49</v>
-      </c>
       <c r="D162">
         <v>2020</v>
       </c>
@@ -2718,9 +2703,6 @@
       <c r="B163" t="s">
         <v>48</v>
       </c>
-      <c r="C163" t="s">
-        <v>49</v>
-      </c>
       <c r="D163">
         <v>2020</v>
       </c>
@@ -2732,9 +2714,6 @@
       <c r="B164" t="s">
         <v>48</v>
       </c>
-      <c r="C164" t="s">
-        <v>49</v>
-      </c>
       <c r="D164">
         <v>2020</v>
       </c>
@@ -2746,9 +2725,6 @@
       <c r="B165" t="s">
         <v>48</v>
       </c>
-      <c r="C165" t="s">
-        <v>49</v>
-      </c>
       <c r="D165">
         <v>2020</v>
       </c>
@@ -2758,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C166">
         <v>90</v>
@@ -2772,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C167">
         <v>312</v>
@@ -2786,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>46</v>
-      </c>
-      <c r="C168" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C168">
+        <v>725</v>
       </c>
       <c r="D168">
         <v>2019</v>
@@ -2800,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C169">
         <v>299</v>
@@ -2814,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C170">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="D170">
         <v>2019</v>
@@ -2828,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C171">
         <v>402</v>
@@ -2842,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C172">
         <v>355</v>
@@ -2856,10 +2832,10 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C173">
-        <v>528</v>
+        <v>446</v>
       </c>
       <c r="D173">
         <v>2019</v>
@@ -2870,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C174">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="D174">
         <v>2019</v>
@@ -2884,10 +2860,10 @@
         <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C175">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="D175">
         <v>2019</v>
@@ -2898,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C176">
         <v>235</v>
@@ -2912,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C177">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D177">
         <v>2019</v>
@@ -2926,10 +2902,10 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C178">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D178">
         <v>2019</v>
@@ -2940,10 +2916,10 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
-      </c>
-      <c r="C179" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C179">
+        <v>965</v>
       </c>
       <c r="D179">
         <v>2019</v>
@@ -2954,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C180">
         <v>277</v>
@@ -2968,7 +2944,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C181">
         <v>373</v>
@@ -2982,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C182">
         <v>244</v>
@@ -2996,10 +2972,10 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
-      </c>
-      <c r="C183" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C183">
+        <v>858</v>
       </c>
       <c r="D183">
         <v>2019</v>
@@ -3010,10 +2986,10 @@
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
-      </c>
-      <c r="C184" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C184">
+        <v>506</v>
       </c>
       <c r="D184">
         <v>2019</v>
@@ -3024,10 +3000,10 @@
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C185">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D185">
         <v>2019</v>
@@ -3038,10 +3014,10 @@
         <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
-      </c>
-      <c r="C186" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C186">
+        <v>648</v>
       </c>
       <c r="D186">
         <v>2019</v>
@@ -3052,10 +3028,10 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
-      </c>
-      <c r="C187" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C187">
+        <v>412</v>
       </c>
       <c r="D187">
         <v>2019</v>
@@ -3066,10 +3042,10 @@
         <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
-      </c>
-      <c r="C188" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C188">
+        <v>549</v>
       </c>
       <c r="D188">
         <v>2019</v>
@@ -3080,10 +3056,10 @@
         <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
-      </c>
-      <c r="C189" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>987</v>
       </c>
       <c r="D189">
         <v>2019</v>
@@ -3094,10 +3070,7 @@
         <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
-      </c>
-      <c r="C190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D190">
         <v>2019</v>
@@ -3108,7 +3081,7 @@
         <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D191">
         <v>2019</v>
@@ -3119,10 +3092,7 @@
         <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
-      </c>
-      <c r="C192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D192">
         <v>2019</v>
@@ -3133,10 +3103,7 @@
         <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
-      </c>
-      <c r="C193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D193">
         <v>2019</v>
@@ -3147,10 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
-      </c>
-      <c r="C194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D194">
         <v>2019</v>
@@ -3161,10 +3125,7 @@
         <v>33</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
-      </c>
-      <c r="C195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D195">
         <v>2019</v>
@@ -3175,10 +3136,7 @@
         <v>34</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
-      </c>
-      <c r="C196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D196">
         <v>2019</v>
@@ -3189,10 +3147,7 @@
         <v>35</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
-      </c>
-      <c r="C197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D197">
         <v>2019</v>
@@ -3203,10 +3158,7 @@
         <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
-      </c>
-      <c r="C198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D198">
         <v>2019</v>
@@ -3217,10 +3169,7 @@
         <v>37</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
-      </c>
-      <c r="C199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D199">
         <v>2019</v>
@@ -3231,10 +3180,7 @@
         <v>38</v>
       </c>
       <c r="B200" t="s">
-        <v>46</v>
-      </c>
-      <c r="C200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D200">
         <v>2019</v>
@@ -3245,10 +3191,7 @@
         <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>46</v>
-      </c>
-      <c r="C201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D201">
         <v>2019</v>
@@ -3259,10 +3202,10 @@
         <v>40</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
-      </c>
-      <c r="C202" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C202">
+        <v>532</v>
       </c>
       <c r="D202">
         <v>2019</v>
@@ -3273,10 +3216,7 @@
         <v>41</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D203">
         <v>2019</v>
@@ -3287,10 +3227,7 @@
         <v>42</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
-      </c>
-      <c r="C204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D204">
         <v>2019</v>
@@ -3301,10 +3238,7 @@
         <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
-      </c>
-      <c r="C205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D205">
         <v>2019</v>
@@ -3315,10 +3249,7 @@
         <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>46</v>
-      </c>
-      <c r="C206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D206">
         <v>2019</v>
@@ -3329,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C207">
         <v>95</v>
@@ -3343,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C208">
         <v>355</v>
@@ -3357,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
-      </c>
-      <c r="C209" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C209">
+        <v>962</v>
       </c>
       <c r="D209">
         <v>2018</v>
@@ -3371,7 +3302,7 @@
         <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C210">
         <v>291</v>
@@ -3385,10 +3316,10 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C211">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="D211">
         <v>2018</v>
@@ -3399,10 +3330,10 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C212">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D212">
         <v>2018</v>
@@ -3413,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C213">
         <v>373</v>
@@ -3427,10 +3358,10 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C214">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D214">
         <v>2018</v>
@@ -3441,10 +3372,10 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C215">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D215">
         <v>2018</v>
@@ -3455,10 +3386,10 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C216">
-        <v>954</v>
+        <v>910</v>
       </c>
       <c r="D216">
         <v>2018</v>
@@ -3469,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C217">
         <v>240</v>
@@ -3483,10 +3414,10 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C218">
-        <v>517</v>
+        <v>614</v>
       </c>
       <c r="D218">
         <v>2018</v>
@@ -3497,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C219">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D219">
         <v>2018</v>
@@ -3511,10 +3442,10 @@
         <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C220">
+        <v>863</v>
       </c>
       <c r="D220">
         <v>2018</v>
@@ -3525,7 +3456,7 @@
         <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C221">
         <v>323</v>
@@ -3539,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C222">
         <v>386</v>
@@ -3553,7 +3484,7 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C223">
         <v>250</v>
@@ -3567,10 +3498,10 @@
         <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>46</v>
-      </c>
-      <c r="C224" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C224">
+        <v>962</v>
       </c>
       <c r="D224">
         <v>2018</v>
@@ -3581,10 +3512,10 @@
         <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>46</v>
-      </c>
-      <c r="C225" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C225">
+        <v>566</v>
       </c>
       <c r="D225">
         <v>2018</v>
@@ -3595,10 +3526,10 @@
         <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C226">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D226">
         <v>2018</v>
@@ -3609,10 +3540,10 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
-      </c>
-      <c r="C227" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C227">
+        <v>733</v>
       </c>
       <c r="D227">
         <v>2018</v>
@@ -3623,10 +3554,10 @@
         <v>25</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
-      </c>
-      <c r="C228" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C228">
+        <v>493</v>
       </c>
       <c r="D228">
         <v>2018</v>
@@ -3637,10 +3568,10 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>46</v>
-      </c>
-      <c r="C229" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C229">
+        <v>633</v>
       </c>
       <c r="D229">
         <v>2018</v>
@@ -3651,10 +3582,7 @@
         <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
-      </c>
-      <c r="C230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D230">
         <v>2018</v>
@@ -3665,10 +3593,7 @@
         <v>28</v>
       </c>
       <c r="B231" t="s">
-        <v>46</v>
-      </c>
-      <c r="C231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D231">
         <v>2018</v>
@@ -3679,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D232">
         <v>2018</v>
@@ -3690,10 +3615,7 @@
         <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>46</v>
-      </c>
-      <c r="C233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D233">
         <v>2018</v>
@@ -3704,10 +3626,7 @@
         <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
-      </c>
-      <c r="C234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D234">
         <v>2018</v>
@@ -3718,10 +3637,7 @@
         <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>46</v>
-      </c>
-      <c r="C235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D235">
         <v>2018</v>
@@ -3732,10 +3648,7 @@
         <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>46</v>
-      </c>
-      <c r="C236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D236">
         <v>2018</v>
@@ -3746,10 +3659,7 @@
         <v>34</v>
       </c>
       <c r="B237" t="s">
-        <v>46</v>
-      </c>
-      <c r="C237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D237">
         <v>2018</v>
@@ -3760,10 +3670,7 @@
         <v>35</v>
       </c>
       <c r="B238" t="s">
-        <v>46</v>
-      </c>
-      <c r="C238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D238">
         <v>2018</v>
@@ -3774,10 +3681,7 @@
         <v>36</v>
       </c>
       <c r="B239" t="s">
-        <v>46</v>
-      </c>
-      <c r="C239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D239">
         <v>2018</v>
@@ -3788,10 +3692,7 @@
         <v>37</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
-      </c>
-      <c r="C240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D240">
         <v>2018</v>
@@ -3802,10 +3703,7 @@
         <v>38</v>
       </c>
       <c r="B241" t="s">
-        <v>46</v>
-      </c>
-      <c r="C241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D241">
         <v>2018</v>
@@ -3816,10 +3714,7 @@
         <v>39</v>
       </c>
       <c r="B242" t="s">
-        <v>46</v>
-      </c>
-      <c r="C242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D242">
         <v>2018</v>
@@ -3830,10 +3725,10 @@
         <v>40</v>
       </c>
       <c r="B243" t="s">
-        <v>46</v>
-      </c>
-      <c r="C243" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C243">
+        <v>580</v>
       </c>
       <c r="D243">
         <v>2018</v>
@@ -3844,10 +3739,7 @@
         <v>41</v>
       </c>
       <c r="B244" t="s">
-        <v>46</v>
-      </c>
-      <c r="C244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D244">
         <v>2018</v>
@@ -3858,10 +3750,7 @@
         <v>42</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
-      </c>
-      <c r="C245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D245">
         <v>2018</v>
@@ -3872,10 +3761,7 @@
         <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>46</v>
-      </c>
-      <c r="C246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D246">
         <v>2018</v>
@@ -3886,10 +3772,7 @@
         <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>46</v>
-      </c>
-      <c r="C247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D247">
         <v>2018</v>
@@ -3900,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C248">
         <v>108</v>
@@ -3914,7 +3797,10 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C249">
+        <v>350</v>
       </c>
       <c r="D249">
         <v>2017</v>
@@ -3925,10 +3811,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>46</v>
-      </c>
-      <c r="C250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D250">
         <v>2017</v>
@@ -3939,7 +3822,7 @@
         <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C251">
         <v>306</v>
@@ -3953,10 +3836,10 @@
         <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C252">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D252">
         <v>2017</v>
@@ -3967,10 +3850,10 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C253">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D253">
         <v>2017</v>
@@ -3981,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C254">
         <v>350</v>
@@ -3995,10 +3878,10 @@
         <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C255">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="D255">
         <v>2017</v>
@@ -4009,10 +3892,10 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C256">
-        <v>530</v>
+        <v>637</v>
       </c>
       <c r="D256">
         <v>2017</v>
@@ -4023,10 +3906,10 @@
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C257">
-        <v>954</v>
+        <v>701</v>
       </c>
       <c r="D257">
         <v>2017</v>
@@ -4037,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="B258" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C258">
         <v>258</v>
@@ -4051,7 +3934,7 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C259">
         <v>517</v>
@@ -4065,10 +3948,10 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C260">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D260">
         <v>2017</v>
@@ -4079,10 +3962,10 @@
         <v>17</v>
       </c>
       <c r="B261" t="s">
-        <v>46</v>
-      </c>
-      <c r="C261" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C261">
+        <v>701</v>
       </c>
       <c r="D261">
         <v>2017</v>
@@ -4093,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C262">
         <v>377</v>
@@ -4107,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C263">
         <v>400</v>
@@ -4121,7 +4004,7 @@
         <v>20</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C264">
         <v>291</v>
@@ -4135,10 +4018,10 @@
         <v>21</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
-      </c>
-      <c r="C265" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C265">
+        <v>701</v>
       </c>
       <c r="D265">
         <v>2017</v>
@@ -4149,10 +4032,10 @@
         <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
-      </c>
-      <c r="C266" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C266">
+        <v>554</v>
       </c>
       <c r="D266">
         <v>2017</v>
@@ -4163,10 +4046,10 @@
         <v>23</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C267">
-        <v>446</v>
+        <v>542</v>
       </c>
       <c r="D267">
         <v>2017</v>
@@ -4177,10 +4060,10 @@
         <v>24</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
-      </c>
-      <c r="C268" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C268">
+        <v>701</v>
       </c>
       <c r="D268">
         <v>2017</v>
@@ -4191,10 +4074,10 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>46</v>
-      </c>
-      <c r="C269" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C269">
+        <v>649</v>
       </c>
       <c r="D269">
         <v>2017</v>
@@ -4205,10 +4088,10 @@
         <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>46</v>
-      </c>
-      <c r="C270" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C270">
+        <v>558</v>
       </c>
       <c r="D270">
         <v>2017</v>
@@ -4219,10 +4102,7 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>46</v>
-      </c>
-      <c r="C271" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D271">
         <v>2017</v>
@@ -4233,10 +4113,7 @@
         <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>46</v>
-      </c>
-      <c r="C272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D272">
         <v>2017</v>
@@ -4247,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="B273" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D273">
         <v>2017</v>
@@ -4258,10 +4135,7 @@
         <v>30</v>
       </c>
       <c r="B274" t="s">
-        <v>46</v>
-      </c>
-      <c r="C274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D274">
         <v>2017</v>
@@ -4272,10 +4146,7 @@
         <v>31</v>
       </c>
       <c r="B275" t="s">
-        <v>46</v>
-      </c>
-      <c r="C275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D275">
         <v>2017</v>
@@ -4286,10 +4157,7 @@
         <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>46</v>
-      </c>
-      <c r="C276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D276">
         <v>2017</v>
@@ -4300,10 +4168,7 @@
         <v>33</v>
       </c>
       <c r="B277" t="s">
-        <v>46</v>
-      </c>
-      <c r="C277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D277">
         <v>2017</v>
@@ -4314,10 +4179,7 @@
         <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>46</v>
-      </c>
-      <c r="C278" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D278">
         <v>2017</v>
@@ -4328,10 +4190,7 @@
         <v>35</v>
       </c>
       <c r="B279" t="s">
-        <v>46</v>
-      </c>
-      <c r="C279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D279">
         <v>2017</v>
@@ -4342,10 +4201,7 @@
         <v>36</v>
       </c>
       <c r="B280" t="s">
-        <v>46</v>
-      </c>
-      <c r="C280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D280">
         <v>2017</v>
@@ -4356,10 +4212,7 @@
         <v>37</v>
       </c>
       <c r="B281" t="s">
-        <v>46</v>
-      </c>
-      <c r="C281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D281">
         <v>2017</v>
@@ -4370,10 +4223,7 @@
         <v>38</v>
       </c>
       <c r="B282" t="s">
-        <v>46</v>
-      </c>
-      <c r="C282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D282">
         <v>2017</v>
@@ -4384,10 +4234,7 @@
         <v>39</v>
       </c>
       <c r="B283" t="s">
-        <v>46</v>
-      </c>
-      <c r="C283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D283">
         <v>2017</v>
@@ -4398,10 +4245,10 @@
         <v>40</v>
       </c>
       <c r="B284" t="s">
-        <v>46</v>
-      </c>
-      <c r="C284" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C284">
+        <v>577</v>
       </c>
       <c r="D284">
         <v>2017</v>
@@ -4412,10 +4259,7 @@
         <v>41</v>
       </c>
       <c r="B285" t="s">
-        <v>46</v>
-      </c>
-      <c r="C285" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D285">
         <v>2017</v>
@@ -4426,10 +4270,7 @@
         <v>42</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
-      </c>
-      <c r="C286" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D286">
         <v>2017</v>
@@ -4440,10 +4281,7 @@
         <v>43</v>
       </c>
       <c r="B287" t="s">
-        <v>46</v>
-      </c>
-      <c r="C287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D287">
         <v>2017</v>
@@ -4454,10 +4292,7 @@
         <v>44</v>
       </c>
       <c r="B288" t="s">
-        <v>46</v>
-      </c>
-      <c r="C288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D288">
         <v>2017</v>
